--- a/AFM Validator.xlsx
+++ b/AFM Validator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082240B8-C125-4B9E-95F8-44D1FDEE2BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB2448-FCD1-430B-B749-5087FEE840CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DEF0758-69D2-4F64-8FDD-33065201A4F9}"/>
+    <workbookView xWindow="1560" yWindow="2220" windowWidth="21420" windowHeight="12045" xr2:uid="{4DEF0758-69D2-4F64-8FDD-33065201A4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AFM Validator" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -131,14 +131,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -228,7 +222,7 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</calculatedColumnFormula>
     </tableColumn>
@@ -563,15 +557,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -588,7 +582,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="b" cm="1">
+      <c r="B2" s="4" t="b" cm="1">
         <f t="array" ref="B2">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -596,7 +590,7 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
@@ -606,7 +600,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="b" cm="1">
+      <c r="B3" s="4" t="b" cm="1">
         <f t="array" ref="B3">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -614,7 +608,7 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>0</v>
@@ -624,7 +618,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="b" cm="1">
+      <c r="B4" s="4" t="b" cm="1">
         <f t="array" ref="B4">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -632,14 +626,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="b" cm="1">
+      <c r="B5" s="4" t="b" cm="1">
         <f t="array" ref="B5">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -647,7 +641,7 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
@@ -655,7 +649,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="b" cm="1">
+      <c r="B6" s="4" t="b" cm="1">
         <f t="array" ref="B6">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -663,14 +657,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="b" cm="1">
+      <c r="B7" s="4" t="b" cm="1">
         <f t="array" ref="B7">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -678,14 +672,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="b" cm="1">
+      <c r="B8" s="4" t="b" cm="1">
         <f t="array" ref="B8">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -693,14 +687,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="b" cm="1">
+      <c r="B9" s="4" t="b" cm="1">
         <f t="array" ref="B9">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -708,14 +702,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="b" cm="1">
+      <c r="B10" s="4" t="b" cm="1">
         <f t="array" ref="B10">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -723,14 +717,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="b" cm="1">
+      <c r="B11" s="4" t="b" cm="1">
         <f t="array" ref="B11">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -738,14 +732,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="b" cm="1">
+      <c r="B12" s="4" t="b" cm="1">
         <f t="array" ref="B12">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -753,14 +747,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="b" cm="1">
+      <c r="B13" s="4" t="b" cm="1">
         <f t="array" ref="B13">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -768,14 +762,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="b" cm="1">
+      <c r="B14" s="4" t="b" cm="1">
         <f t="array" ref="B14">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -783,14 +777,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="b" cm="1">
+      <c r="B15" s="4" t="b" cm="1">
         <f t="array" ref="B15">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -798,14 +792,14 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="b" cm="1">
+      <c r="B16" s="4" t="b" cm="1">
         <f t="array" ref="B16">_xlfn.LET(
 _xlpm.afm,Table1[[#This Row],[AFM]],
 _xlpm.afm_by_digit,_xlfn.NUMBERVALUE(MID(_xlpm.afm,_xlfn.SEQUENCE(1,9,1,1),1)),
@@ -813,26 +807,26 @@
 _xlpm.var_c9,_xlfn.DROP(_xlpm.afm_by_digit,,8),
 _xlpm.var_a1, SUMPRODUCT({256,128,64,32,16,8,4,2},_xlpm.afm_dgts_for_a1),
 _xlpm.var_a2, MOD(_xlpm.var_a1,11),
-_xlpm.check_digit,MOD(_xlpm.var_a2,11),
+_xlpm.check_digit,MOD(_xlpm.var_a2,10),
 _xlpm.check_digit=_xlpm.var_c9
 )</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
